--- a/input/test.xlsx
+++ b/input/test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t xml:space="preserve">Номер</t>
   </si>
@@ -28,6 +28,9 @@
     <t xml:space="preserve">Название</t>
   </si>
   <si>
+    <t xml:space="preserve">Тип памятника</t>
+  </si>
+  <si>
     <t xml:space="preserve">Эпоха</t>
   </si>
   <si>
@@ -43,6 +46,9 @@
     <t xml:space="preserve">Горкинский клад монет II</t>
   </si>
   <si>
+    <t xml:space="preserve">Клад</t>
+  </si>
+  <si>
     <t xml:space="preserve">Средневековье</t>
   </si>
   <si>
@@ -53,6 +59,9 @@
   </si>
   <si>
     <t xml:space="preserve">Важнейший</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Городище</t>
   </si>
   <si>
     <t xml:space="preserve">Почему же он важнейший?</t>
@@ -133,8 +142,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -159,10 +172,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -170,8 +183,8 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.5255102040816"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.719387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.9591836734694"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.3112244897959"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.5204081632653"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
@@ -195,24 +208,30 @@
       <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="48.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>322</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="n">
         <v>54</v>
       </c>
     </row>
@@ -221,18 +240,21 @@
         <v>333</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="0" t="n">
         <v>55</v>
       </c>
     </row>

--- a/input/test.xlsx
+++ b/input/test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t xml:space="preserve">Номер</t>
   </si>
@@ -31,6 +31,9 @@
     <t xml:space="preserve">Тип памятника</t>
   </si>
   <si>
+    <t xml:space="preserve">Культурная принадлежность</t>
+  </si>
+  <si>
     <t xml:space="preserve">Эпоха</t>
   </si>
   <si>
@@ -40,6 +43,9 @@
     <t xml:space="preserve">Библиографические ссылки</t>
   </si>
   <si>
+    <t xml:space="preserve">Координаты</t>
+  </si>
+  <si>
     <t xml:space="preserve">Страницы</t>
   </si>
   <si>
@@ -49,6 +55,9 @@
     <t xml:space="preserve">Клад</t>
   </si>
   <si>
+    <t xml:space="preserve">One</t>
+  </si>
+  <si>
     <t xml:space="preserve">Средневековье</t>
   </si>
   <si>
@@ -58,16 +67,25 @@
     <t xml:space="preserve">Федоров-Давыдов Г.А., 1960г, с. 139, №55; Фархутдинов Р.Г., 1975г, с. 131-131, №818</t>
   </si>
   <si>
+    <t xml:space="preserve">10.0, 20.3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Важнейший</t>
   </si>
   <si>
     <t xml:space="preserve">Городище</t>
   </si>
   <si>
+    <t xml:space="preserve">Two</t>
+  </si>
+  <si>
     <t xml:space="preserve">Почему же он важнейший?</t>
   </si>
   <si>
     <t xml:space="preserve">Шарипов И.А. 1999г с.10 #10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3, 30.5</t>
   </si>
 </sst>
 </file>
@@ -172,10 +190,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -183,10 +201,12 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.5255102040816"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.9591836734694"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.3112244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.280612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.6377551020408"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.5204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="27.2397959183673"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.7244897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -211,27 +231,39 @@
       <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="48.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>322</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="n">
         <v>54</v>
       </c>
     </row>
@@ -240,21 +272,27 @@
         <v>333</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>14</v>
-      </c>
       <c r="F3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="0" t="n">
         <v>55</v>
       </c>
     </row>
